--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559978.622860203</v>
+        <v>-562491.0312415678</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>177.580314550526</v>
+        <v>241.2054274907341</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>21.85017712359379</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>56.11455331988504</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>116.7942439067378</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>48.85589892224911</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>64.43856447801353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>199.3046817945071</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>158.1837596300281</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>85.950140281792</v>
       </c>
       <c r="H8" t="n">
-        <v>275.6006602165983</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>183.1842792561155</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>160.3243999861102</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9357387834172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>43.73846614325024</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>164.3759324426007</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.33703994142962</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>119.6255281319618</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.135572818019</v>
+        <v>1274.245689520978</v>
       </c>
       <c r="C2" t="n">
-        <v>1519.135572818019</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.869874211268</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>775.0816216130238</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.135572818019</v>
+        <v>1660.8455295851</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1905.223662105065</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1683.457046674591</v>
       </c>
       <c r="U4" t="n">
-        <v>1780.782723856238</v>
+        <v>1683.457046674591</v>
       </c>
       <c r="V4" t="n">
-        <v>1526.098235650351</v>
+        <v>1428.772558468704</v>
       </c>
       <c r="W4" t="n">
-        <v>1408.124251906171</v>
+        <v>1139.355388431743</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>911.3658375337259</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033352</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1920.850034779555</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1699.083419349081</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1409.980552474725</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1155.296064268838</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318774</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338601</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.09676419033</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471215</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>790.6593199240531</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E8" t="n">
-        <v>404.8710673258088</v>
+        <v>564.3163447387526</v>
       </c>
       <c r="F8" t="n">
-        <v>397.9255665766054</v>
+        <v>153.330439949145</v>
       </c>
       <c r="G8" t="n">
-        <v>386.8935204620059</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535337</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>495.6028978564135</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,16 +5124,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.7436897307817</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>822.8075068028749</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>672.6908673905391</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>524.777773808146</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>377.8878263102356</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1394.184733704551</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1173.392154561021</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.4644740681603</v>
+        <v>763.7541388327597</v>
       </c>
       <c r="C19" t="n">
-        <v>465.5282911402533</v>
+        <v>594.8179559048529</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>594.8179559048529</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>446.9048623224597</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>446.9048623224597</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>279.7087630373397</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>137.9969318795378</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235163</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T19" t="n">
-        <v>2098.071953838597</v>
+        <v>2227.361618603197</v>
       </c>
       <c r="U19" t="n">
-        <v>1808.996727182795</v>
+        <v>1938.286391947395</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.312238976908</v>
+        <v>1683.601903741508</v>
       </c>
       <c r="W19" t="n">
-        <v>1264.895068939947</v>
+        <v>1394.184733704547</v>
       </c>
       <c r="X19" t="n">
-        <v>1036.90551804193</v>
+        <v>1166.19518280653</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.1129388984</v>
+        <v>945.4026036629995</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,19 +5759,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>758.4873575891489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2259.083513032701</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.482048055643</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,7 +6646,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7120,7 +7120,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7315,19 +7315,19 @@
         <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
@@ -7792,25 +7792,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.6576241055276</v>
+        <v>145.0325111653194</v>
       </c>
     </row>
     <row r="3">
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>169.7287544298532</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.7287544298457</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>24.58839950885164</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016485</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>37.5273701753153</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>53.02951788468755</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>105.0969227051395</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>61.40075786968275</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
         <v>262322.644899252</v>
@@ -26350,7 +26350,7 @@
         <v>266838.5752058925</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363178</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25836.29827083321</v>
+        <v>25836.29827083331</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
@@ -26433,28 +26433,28 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="N4" t="n">
+        <v>20987.72340992394</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.7234099239</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992393</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233455.340783921</v>
+        <v>-1233745.947948766</v>
       </c>
       <c r="C6" t="n">
-        <v>66720.73572631704</v>
+        <v>66720.73572631707</v>
       </c>
       <c r="D6" t="n">
         <v>66720.73572631711</v>
       </c>
       <c r="E6" t="n">
-        <v>-177209.2108788408</v>
+        <v>-177243.9488042764</v>
       </c>
       <c r="F6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="G6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="H6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="I6" t="n">
-        <v>148203.2509285144</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="J6" t="n">
-        <v>-69327.95146876309</v>
+        <v>-69362.68939419875</v>
       </c>
       <c r="K6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030787</v>
       </c>
       <c r="L6" t="n">
-        <v>148203.2509285145</v>
+        <v>148168.5130030788</v>
       </c>
       <c r="M6" t="n">
-        <v>63148.22299300267</v>
+        <v>63113.48506756697</v>
       </c>
       <c r="N6" t="n">
         <v>123259.0179484214</v>
       </c>
       <c r="O6" t="n">
-        <v>142686.7359420529</v>
+        <v>142686.735942053</v>
       </c>
       <c r="P6" t="n">
         <v>142686.735942053</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>167.9188482078481</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.0972848857278</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2444771426694</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>211.6170438589463</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>128.3392387065629</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>324.9715853716614</v>
       </c>
       <c r="H8" t="n">
-        <v>19.00710417072213</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>35.40037409597932</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28384,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28533,16 +28533,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>-3.959144123655279e-12</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31844,19 +31844,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,13 +33415,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -35492,19 +35492,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
